--- a/out/10 Support Company Dissatisfaction.xlsx
+++ b/out/10 Support Company Dissatisfaction.xlsx
@@ -482,33 +482,33 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D2" t="n">
         <v>415</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1389353866755942</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07022025821096116</v>
+        <v>-0.07101371818434953</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03213613363272796</v>
+        <v>-0.02891436283433768</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.009685208155389381</v>
+        <v>-0.007250955716732744</v>
       </c>
       <c r="I2" t="n">
-        <v>5.579793774586608e-66</v>
+        <v>1.182557644455904e-65</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -516,33 +516,33 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6241</v>
       </c>
       <c r="D3" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09709982374619452</v>
+        <v>0.09726005447844897</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03809939123320757</v>
+        <v>-0.03882021773706945</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02390125943624665</v>
+        <v>-0.01725895119393099</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.02534635243062078</v>
+        <v>-0.01835716779214277</v>
       </c>
       <c r="I3" t="n">
-        <v>6.532244078413331e-41</v>
+        <v>7.017639830927788e-41</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -550,33 +550,33 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="D4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1191446028513238</v>
+        <v>0.1193499238191976</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04982386121464223</v>
+        <v>-0.05104226483815671</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02857849106555838</v>
+        <v>-0.0239689563302705</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02016908885562778</v>
+        <v>-0.01487226282601036</v>
       </c>
       <c r="I4" t="n">
-        <v>4.088641882594987e-28</v>
+        <v>3.462886965531241e-28</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -584,11 +584,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -601,16 +601,16 @@
         <v>0.2532467532467532</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1641354152115596</v>
+        <v>-0.164145686714091</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05323768257861788</v>
+        <v>-0.05018181298615709</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.006818510789812853</v>
+        <v>-0.006663723054741694</v>
       </c>
       <c r="I5" t="n">
-        <v>3.384043929535275e-15</v>
+        <v>3.65750874439826e-15</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -618,33 +618,33 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09971509971509972</v>
+        <v>0.1004243281471004</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0430418243360589</v>
+        <v>-0.04372024074214217</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02713004785625005</v>
+        <v>-0.0238433160765744</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01116696484418445</v>
+        <v>-0.007958534503736368</v>
       </c>
       <c r="I6" t="n">
-        <v>1.390597229286033e-06</v>
+        <v>9.950779627136482e-07</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -652,33 +652,33 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1015</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07586206896551724</v>
+        <v>0.07783251231527094</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04399988602302564</v>
+        <v>-0.04569156255608683</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01994077363819187</v>
+        <v>-0.01586651962012451</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01163460368556034</v>
+        <v>-0.006765454287455257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002823746538328205</v>
+        <v>0.001368261029123062</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -686,11 +686,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C30330</t>
+          <t>C61606</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3833333333333334</v>
+        <v>-0.4043859649122807</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02680412371134022</v>
+        <v>-0.04554242749731474</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06984126984126993</v>
+        <v>-0.02618083670715254</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -720,11 +720,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C39022</t>
+          <t>C49668</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -737,16 +737,16 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0562475950753287</v>
+        <v>-0.05752882449820106</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02491187838193032</v>
+        <v>-0.0296994450050169</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002566388920135755</v>
+        <v>-0.001304218850816396</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1284621497163632</v>
+        <v>0.129159992620014</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -754,11 +754,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C56632</t>
+          <t>C88466</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -771,16 +771,16 @@
         <v>0.01503759398496241</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01303414361003028</v>
+        <v>-0.01281607168737109</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01489709392777214</v>
+        <v>-0.009902739521633824</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.008886724906396314</v>
+        <v>-0.006269487707113569</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9950954384776357</v>
+        <v>0.9951766606394586</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -788,11 +788,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C65846</t>
+          <t>C31489</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -822,15 +822,15 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.08407954502080232</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.004429781353926306</v>
+        <v>-0.02658452119874263</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001642950029825575</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>

--- a/out/10 Support Company Dissatisfaction.xlsx
+++ b/out/10 Support Company Dissatisfaction.xlsx
@@ -482,33 +482,33 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2988</v>
+        <v>2980</v>
       </c>
       <c r="D2" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1389261744966443</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07101371818434953</v>
+        <v>-0.07057978259403024</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02891436283433768</v>
+        <v>-0.03540518120547957</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.007250955716732744</v>
+        <v>-0.007441735934316849</v>
       </c>
       <c r="I2" t="n">
-        <v>1.182557644455904e-65</v>
+        <v>2.654782505892317e-65</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -516,33 +516,33 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6241</v>
+        <v>6257</v>
       </c>
       <c r="D3" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09726005447844897</v>
+        <v>0.09813009429439028</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03882021773706945</v>
+        <v>-0.03881845123767466</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01725895119393099</v>
+        <v>-0.02662496170414477</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01835716779214277</v>
+        <v>-0.02065311676656497</v>
       </c>
       <c r="I3" t="n">
-        <v>7.017639830927788e-41</v>
+        <v>3.262153668055073e-42</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -550,33 +550,33 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="D4" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1193499238191976</v>
+        <v>0.1193727870510875</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05104226483815671</v>
+        <v>-0.05063141656000789</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0239689563302705</v>
+        <v>-0.02922403062799967</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01487226282601036</v>
+        <v>-0.01413680277924534</v>
       </c>
       <c r="I4" t="n">
-        <v>3.462886965531241e-28</v>
+        <v>3.413563647698498e-28</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -584,33 +584,33 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>38.99999999999999</v>
+        <v>39.99999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2532467532467532</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.164145686714091</v>
+        <v>-0.1622344843255739</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05018181298615709</v>
+        <v>-0.04219183641309136</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.006663723054741694</v>
+        <v>-0.004754280151274627</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65750874439826e-15</v>
+        <v>6.687957022001454e-16</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -618,33 +618,33 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D6" t="n">
         <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1004243281471004</v>
+        <v>0.1014285714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04372024074214217</v>
+        <v>-0.04567803270773159</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0238433160765744</v>
+        <v>-0.02845236312005293</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.007958534503736368</v>
+        <v>-0.004344654990730176</v>
       </c>
       <c r="I6" t="n">
-        <v>9.950779627136482e-07</v>
+        <v>7.449811084728766e-07</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -656,29 +656,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07783251231527094</v>
+        <v>0.07381889763779527</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04569156255608683</v>
+        <v>-0.04551235402939315</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01586651962012451</v>
+        <v>-0.0197498219530621</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.006765454287455257</v>
+        <v>-0.009144703000723925</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001368261029123062</v>
+        <v>0.006695928777848197</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -686,11 +686,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C61606</t>
+          <t>C37760</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4043859649122807</v>
+        <v>-0.5085526315789474</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04554242749731474</v>
+        <v>-0.1781954887218045</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02618083670715254</v>
+        <v>0.01405375139977605</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -720,11 +720,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C49668</t>
+          <t>C79205</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -737,16 +737,16 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05752882449820106</v>
+        <v>-0.0755031212943149</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0296994450050169</v>
+        <v>-0.02309438327167567</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.001304218850816396</v>
+        <v>-0.0038038658991068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.129159992620014</v>
+        <v>0.1297269075933278</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -754,11 +754,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C88466</t>
+          <t>C31039</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -771,16 +771,16 @@
         <v>0.01503759398496241</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01281607168737109</v>
+        <v>-0.01597603711496509</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009902739521633824</v>
+        <v>-0.01104071169111831</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.006269487707113569</v>
+        <v>-0.009063800739512531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9951766606394586</v>
+        <v>0.9952415577175245</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C31489</t>
+          <t>C15468</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -822,11 +822,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08407954502080232</v>
+        <v>-0.07457698666760475</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02658452119874263</v>
+        <v>-0.01670815175106852</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.008051214806121242</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>

--- a/out/10 Support Company Dissatisfaction.xlsx
+++ b/out/10 Support Company Dissatisfaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>dissatisfaction_proba</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>reopened</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>resolution_time</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>no_resolution</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pvalue</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>relevant</t>
         </is>
@@ -482,103 +487,112 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="D2" t="n">
-        <v>414</v>
+        <v>416.9999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1389261744966443</v>
+        <v>0.1401209677419355</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07057978259403024</v>
+        <v>0.1332941395523244</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03540518120547957</v>
+        <v>-0.07211469039468985</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.007441735934316849</v>
+        <v>-0.03480854504281932</v>
       </c>
       <c r="I2" t="n">
-        <v>2.654782505892317e-65</v>
-      </c>
-      <c r="J2" t="b">
+        <v>-0.01097794130066715</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.343284433971518e-65</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6257</v>
+        <v>6253</v>
       </c>
       <c r="D3" t="n">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09813009429439028</v>
+        <v>0.09915240684471453</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03881845123767466</v>
+        <v>0.1015381648879499</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02662496170414477</v>
+        <v>-0.03901802440855199</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.02065311676656497</v>
+        <v>-0.02815115100142347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.262153668055073e-42</v>
-      </c>
-      <c r="J3" t="b">
+        <v>-0.02818530403538854</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.038606032464328e-43</v>
+      </c>
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="D4" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1193727870510875</v>
+        <v>0.120785103170609</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05063141656000789</v>
+        <v>0.1100312924196893</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02922403062799967</v>
+        <v>-0.05022846699875171</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01413680277924534</v>
+        <v>-0.02886396850443192</v>
       </c>
       <c r="I4" t="n">
-        <v>3.413563647698498e-28</v>
-      </c>
-      <c r="J4" t="b">
+        <v>-0.02036705573386157</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.594367365718013e-29</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -588,31 +602,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" t="n">
-        <v>39.99999999999999</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.2451612903225806</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1622344843255739</v>
+        <v>0.2147595874691718</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04219183641309136</v>
+        <v>-0.1549849912717779</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.004754280151274627</v>
+        <v>-0.03982428743885707</v>
       </c>
       <c r="I5" t="n">
-        <v>6.687957022001454e-16</v>
-      </c>
-      <c r="J5" t="b">
+        <v>-0.006868909547391057</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.998271307080038e-15</v>
+      </c>
+      <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -622,75 +639,81 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1014285714285714</v>
+        <v>0.1027104136947218</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04567803270773159</v>
+        <v>0.1071544735269975</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02845236312005293</v>
+        <v>-0.04603830256519762</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004344654990730176</v>
+        <v>-0.02746348021398833</v>
       </c>
       <c r="I6" t="n">
-        <v>7.449811084728766e-07</v>
-      </c>
-      <c r="J6" t="b">
+        <v>-0.009857110517730916</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.987086691988257e-07</v>
+      </c>
+      <c r="K6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07381889763779527</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04551235402939315</v>
+        <v>0.09368506722754191</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0197498219530621</v>
+        <v>-0.04351410243130077</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.009144703000723925</v>
+        <v>-0.01912677586879663</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006695928777848197</v>
-      </c>
-      <c r="J7" t="b">
+        <v>-0.01411663740290548</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01628521425746129</v>
+      </c>
+      <c r="K7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C37760</t>
+          <t>C56292</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -703,28 +726,31 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5085526315789474</v>
+        <v>0.8290155440414507</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1781954887218045</v>
+        <v>-0.4872433921427166</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01405375139977605</v>
+        <v>-0.1816941154700221</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="J8" t="b">
+        <v>-0.1003333734988151</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C79205</t>
+          <t>C83383</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -737,52 +763,58 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0755031212943149</v>
+        <v>0.1308495575761802</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02309438327167567</v>
+        <v>-0.07896795595960175</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0038038658991068</v>
+        <v>-0.01965412945110733</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1297269075933278</v>
-      </c>
-      <c r="J9" t="b">
+        <v>-0.002221837514584232</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1315988216538003</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C31039</t>
+          <t>C68041</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01503759398496241</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01597603711496509</v>
+        <v>0.05327867639627853</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01104071169111831</v>
+        <v>-0.01325686699981598</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.009063800739512531</v>
+        <v>-0.01495830102057317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9952415577175245</v>
-      </c>
-      <c r="J10" t="b">
+        <v>-0.01305254051287096</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9960863933921404</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C15468</t>
+          <t>C43436</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -805,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -814,9 +846,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -826,7 +861,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,18 +874,21 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07457698666760475</v>
+        <v>0.1275917427239724</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01670815175106852</v>
+        <v>-0.08793334912737898</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008051214806121242</v>
+        <v>-0.03154098414577468</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
+        <v>-0.00189360156164182</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
